--- a/xml.xlsx
+++ b/xml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clf\xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC511767-C32A-4C77-88C3-E9B57D0A6C7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81409E28-FB37-45D3-9964-CA611AA1158A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xml.xlsx
+++ b/xml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clf\xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81409E28-FB37-45D3-9964-CA611AA1158A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E11FF2-DDB4-41D1-8250-5726EB1FDAFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
     <t>Appearance</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>25,30</t>
   </si>
   <si>
-    <t>CSDC</t>
-  </si>
-  <si>
     <t>Material_Property</t>
   </si>
   <si>
@@ -118,13 +106,43 @@
   </si>
   <si>
     <t>8.9,9.0</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Stress_units</t>
+  </si>
+  <si>
+    <t>0,0.01,0.03</t>
+  </si>
+  <si>
+    <t>256, 275, 290</t>
+  </si>
+  <si>
+    <t>Plastic_Strain</t>
+  </si>
+  <si>
+    <t>0,0.2</t>
+  </si>
+  <si>
+    <t>200, 400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +158,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2C9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -174,12 +216,29 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFFF66FF"/>
+      <color rgb="FFFF66CC"/>
+      <color rgb="FFC2C9D6"/>
+      <color rgb="FF8070AE"/>
+      <color rgb="FFD886F2"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -454,177 +513,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>26</v>
+      <c r="R1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
-        <v>128</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" s="4">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="4">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4">
         <v>0.32</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5">
+      <c r="I2" s="4"/>
+      <c r="J2" s="5">
         <v>1.9000000000000001E-5</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2">
+        <v>0.02</v>
+      </c>
+      <c r="O2" s="8">
+        <v>8.1884000000000005E+33</v>
+      </c>
+      <c r="P2" s="9">
+        <v>3.4247000000000001</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>8.1884000000000005E+33</v>
+      </c>
+      <c r="R2" s="9">
+        <v>3.4247000000000001</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7">
+        <v>117</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4">
-        <v>255</v>
-      </c>
-      <c r="C3" s="4">
-        <v>215</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7">
-        <v>117130</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3">
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3">
         <v>0.03</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1.11884E+34</v>
+      </c>
+      <c r="P3" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1.11884E+34</v>
+      </c>
+      <c r="R3" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/xml.xlsx
+++ b/xml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clf\xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E11FF2-DDB4-41D1-8250-5726EB1FDAFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB03372-CB4F-4228-B03A-8A2B0EF0EF54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/xml.xlsx
+++ b/xml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clf\xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB03372-CB4F-4228-B03A-8A2B0EF0EF54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653B1565-FFD8-4AFB-A9C6-FB69AF2E9F50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Youngs_Modulus_units</t>
   </si>
   <si>
-    <t>Poissons_Ratio_units</t>
-  </si>
-  <si>
     <t>1/K</t>
   </si>
   <si>
@@ -93,18 +90,9 @@
     <t>C</t>
   </si>
   <si>
-    <t>25,30</t>
-  </si>
-  <si>
     <t>Material_Property</t>
   </si>
   <si>
-    <t>0.000038,0.000039</t>
-  </si>
-  <si>
-    <t>0.37,0.38</t>
-  </si>
-  <si>
     <t>8.9,9.0</t>
   </si>
   <si>
@@ -136,6 +124,69 @@
   </si>
   <si>
     <t>200, 400</t>
+  </si>
+  <si>
+    <t>CTE_X</t>
+  </si>
+  <si>
+    <t>CTE_Y</t>
+  </si>
+  <si>
+    <t>CTE_Z</t>
+  </si>
+  <si>
+    <t>Youngs_Modulus_X</t>
+  </si>
+  <si>
+    <t>Youngs_Modulus_Z</t>
+  </si>
+  <si>
+    <t>Shear_Modulus_XY</t>
+  </si>
+  <si>
+    <t>Shear_Modulus_YZ</t>
+  </si>
+  <si>
+    <t>Shear_Modulus_Unit</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Shear_Modulus_XZ</t>
+  </si>
+  <si>
+    <t>Youngs_Modulus_Y</t>
+  </si>
+  <si>
+    <t>20900000000, 20900000000</t>
+  </si>
+  <si>
+    <t>19800000000, 19800000000</t>
+  </si>
+  <si>
+    <t>Poissons_Ratio_XY</t>
+  </si>
+  <si>
+    <t>Poissons_Ratio_YZ</t>
+  </si>
+  <si>
+    <t>Poissons_Ratio_XZ</t>
+  </si>
+  <si>
+    <t>0.2, 0.2</t>
+  </si>
+  <si>
+    <t>8250000000, 8250000000</t>
+  </si>
+  <si>
+    <t>8708000000, 8708000000</t>
+  </si>
+  <si>
+    <t>10, 20</t>
+  </si>
+  <si>
+    <t>10, 19</t>
   </si>
 </sst>
 </file>
@@ -171,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +241,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0407A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -199,29 +256,184 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,6 +442,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC0407A"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFFF66CC"/>
@@ -513,218 +726,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="9.140625" style="1"/>
+    <col min="31" max="31" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="AG1" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2">
+        <v>20900000000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>19800000000</v>
+      </c>
+      <c r="J2" s="40">
+        <v>19800000000</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q2" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="S2" s="40">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="T2" s="15">
+        <v>8250000000</v>
+      </c>
+      <c r="U2" s="2">
+        <v>8250000000</v>
+      </c>
+      <c r="V2" s="2">
+        <v>8700000000</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Z2" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="AA2" s="24">
+        <v>8.1884000000000005E+33</v>
+      </c>
+      <c r="AB2" s="25">
+        <v>3.4247000000000001</v>
+      </c>
+      <c r="AC2" s="26">
+        <v>8.1884000000000005E+33</v>
+      </c>
+      <c r="AD2" s="27">
+        <v>3.4247000000000001</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="AA3" s="28">
+        <v>1.11884E+34</v>
+      </c>
+      <c r="AB3" s="29">
+        <v>5.3</v>
+      </c>
+      <c r="AC3" s="30">
+        <v>1.11884E+34</v>
+      </c>
+      <c r="AD3" s="31">
+        <v>5.3</v>
+      </c>
+      <c r="AE3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="4" t="s">
+    <row r="4" spans="1:33">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2">
-        <v>0.02</v>
-      </c>
-      <c r="O2" s="8">
-        <v>8.1884000000000005E+33</v>
-      </c>
-      <c r="P2" s="9">
-        <v>3.4247000000000001</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>8.1884000000000005E+33</v>
-      </c>
-      <c r="R2" s="9">
-        <v>3.4247000000000001</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" t="s">
-        <v>35</v>
+      <c r="Q4" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7">
-        <v>117</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3">
-        <v>0.03</v>
-      </c>
-      <c r="O3" s="8">
-        <v>1.11884E+34</v>
-      </c>
-      <c r="P3" s="9">
-        <v>5.3</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>1.11884E+34</v>
-      </c>
-      <c r="R3" s="9">
-        <v>5.3</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>32</v>
-      </c>
+    <row r="8" spans="1:33">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
